--- a/Week 60/sruthy.xlsx
+++ b/Week 60/sruthy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Milestone Toolkit\sruthy Aneesh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Support Analysis\Week 60\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -218,6 +218,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -242,14 +250,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -518,11 +518,11 @@
             <a:effectLst/>
           </c:spPr>
         </c:dropLines>
-        <c:axId val="-1097298656"/>
-        <c:axId val="-1097295392"/>
+        <c:axId val="1379052192"/>
+        <c:axId val="1379053280"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-1097298656"/>
+        <c:axId val="1379052192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -565,7 +565,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1097295392"/>
+        <c:crossAx val="1379053280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -573,7 +573,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1097295392"/>
+        <c:axId val="1379053280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -636,7 +636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1097298656"/>
+        <c:crossAx val="1379052192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1592,17 +1592,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
     <col min="6" max="6" width="33.7109375" customWidth="1"/>
     <col min="7" max="7" width="18.140625" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
@@ -1626,10 +1626,10 @@
     <row r="1" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="8"/>
       <c r="B1" s="6"/>
-      <c r="C1" s="11">
+      <c r="C1" s="19">
         <v>43497</v>
       </c>
-      <c r="D1" s="12"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="3"/>
@@ -1657,8 +1657,8 @@
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="3"/>
@@ -1685,15 +1685,15 @@
     </row>
     <row r="3" spans="1:27" ht="20.25" x14ac:dyDescent="0.4">
       <c r="A3" s="9"/>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="15" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="16"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1705,24 +1705,24 @@
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
       <c r="AA3" s="5"/>
     </row>
     <row r="4" spans="1:27" ht="20.25" x14ac:dyDescent="0.4">
       <c r="A4" s="9"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1734,34 +1734,34 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
       <c r="AA4" s="5"/>
     </row>
     <row r="5" spans="1:27" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="22" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="4"/>
@@ -1775,9 +1775,9 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
@@ -1787,12 +1787,12 @@
       <c r="AA5" s="5"/>
     </row>
     <row r="6" spans="1:27" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="10"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -1804,9 +1804,9 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
@@ -1816,19 +1816,19 @@
       <c r="AA6" s="5"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="12">
         <v>6.1805555555555558E-2</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="1"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1852,19 +1852,19 @@
       <c r="AA7" s="5"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="14">
         <v>43518</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="12">
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="15"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -1873,19 +1873,19 @@
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="24">
+      <c r="A9" s="16">
         <v>43518</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="17">
         <v>2.9861111111111113E-2</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="15"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -1894,11 +1894,11 @@
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -1907,25 +1907,25 @@
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="14">
